--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-400266.7488563602</v>
+        <v>-405554.8643511314</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12108815.88681487</v>
+        <v>12107045.94864361</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>113.6441359382045</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>219.5405275044004</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>47.6314705640622</v>
       </c>
       <c r="G3" t="n">
-        <v>69.98930104615192</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.5525529911901</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>108.4701098559615</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>111.4007788377582</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>366.0045281426367</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,10 +987,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.295474296812</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>111.8579893818511</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>76.46607235041772</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>119.3168138600971</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1139,19 +1139,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>311.4816019828579</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>84.80969893562312</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>108.1045920014104</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>73.80678208265807</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>12.69464051301192</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>87.07058733695398</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>40.78297506860747</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1582,19 +1582,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
-        <v>133.5976859451876</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>98.06713920505877</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>117.8545206798375</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>63.83940654028864</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>40.78297506860778</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1819,7 +1819,7 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697372</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875456</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665139</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815733</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093891</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954281</v>
+        <v>268.8067977227893</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619113</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126124</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841672</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564646</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838898</v>
+        <v>24.17382596575021</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828911</v>
+        <v>52.06849973565033</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434679</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970378</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308072</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086858</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435641</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158953</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431743</v>
+        <v>70.57601873167866</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459984</v>
+        <v>55.72314698196107</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643956</v>
+        <v>41.29686219380079</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931867</v>
+        <v>41.2233042466799</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908594</v>
+        <v>42.97275566644717</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147808</v>
+        <v>53.79159358883931</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805012</v>
+        <v>41.14384575541135</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922205</v>
+        <v>18.98356133658328</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367797</v>
+        <v>9.882059701039196</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920528</v>
+        <v>88.00800320656651</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407386</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678085</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546744</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754245</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221371</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988135</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>873.5528533767741</v>
+        <v>1255.544690364741</v>
       </c>
       <c r="C2" t="n">
-        <v>873.5528533767741</v>
+        <v>1255.544690364741</v>
       </c>
       <c r="D2" t="n">
-        <v>873.5528533767741</v>
+        <v>870.1035615814091</v>
       </c>
       <c r="E2" t="n">
-        <v>873.5528533767741</v>
+        <v>467.5200366979536</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067519</v>
+        <v>50.62559822793132</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475499</v>
+        <v>186.1530196651667</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475499</v>
+        <v>280.0122744648588</v>
       </c>
       <c r="L2" t="n">
-        <v>320.4858080663444</v>
+        <v>773.3325661833876</v>
       </c>
       <c r="M2" t="n">
-        <v>858.7445930764374</v>
+        <v>1286.935244793077</v>
       </c>
       <c r="N2" t="n">
-        <v>1386.555876713899</v>
+        <v>1286.935244793077</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606228</v>
+        <v>1726.974845685406</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="U2" t="n">
-        <v>2059.990913234513</v>
+        <v>1819.409608251526</v>
       </c>
       <c r="V2" t="n">
-        <v>2059.990913234513</v>
+        <v>1477.302798955045</v>
       </c>
       <c r="W2" t="n">
-        <v>2059.990913234513</v>
+        <v>1255.544690364741</v>
       </c>
       <c r="X2" t="n">
-        <v>1670.53830816757</v>
+        <v>1255.544690364741</v>
       </c>
       <c r="Y2" t="n">
-        <v>1274.047599088171</v>
+        <v>1255.544690364741</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021447</v>
+        <v>556.1927859813225</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622369</v>
+        <v>405.5385555414147</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837172</v>
+        <v>275.449588162895</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946049</v>
+        <v>139.0030972737827</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777367</v>
+        <v>90.89050074442696</v>
       </c>
       <c r="G3" t="n">
-        <v>43.49565939475499</v>
+        <v>90.89050074442696</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475499</v>
+        <v>90.89050074442696</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475499</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569815</v>
+        <v>158.7695259828377</v>
       </c>
       <c r="L3" t="n">
-        <v>363.2348054569815</v>
+        <v>642.335611881151</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653876</v>
+        <v>1155.93829049084</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875481</v>
+        <v>1669.54096910053</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466462</v>
+        <v>1669.54096910053</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714992</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535683</v>
+        <v>1916.314617614861</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813769</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492411</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1306.727660863478</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1076.610414996765</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675987</v>
+        <v>887.3033373467765</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.609752343106</v>
+        <v>707.9891204222838</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.821594181782</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="C4" t="n">
-        <v>200.821594181782</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="D4" t="n">
-        <v>200.821594181782</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="E4" t="n">
-        <v>200.821594181782</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>833.3845017666167</v>
       </c>
       <c r="T4" t="n">
-        <v>821.0416925688844</v>
+        <v>833.3845017666167</v>
       </c>
       <c r="U4" t="n">
-        <v>535.6029008107853</v>
+        <v>547.9457100085176</v>
       </c>
       <c r="V4" t="n">
-        <v>535.6029008107853</v>
+        <v>547.9457100085176</v>
       </c>
       <c r="W4" t="n">
-        <v>535.6029008107853</v>
+        <v>264.6153079396952</v>
       </c>
       <c r="X4" t="n">
-        <v>535.6029008107853</v>
+        <v>264.6153079396952</v>
       </c>
       <c r="Y4" t="n">
-        <v>312.4908396274286</v>
+        <v>41.50324675633855</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1265.271475716895</v>
+        <v>456.655134154619</v>
       </c>
       <c r="C5" t="n">
-        <v>872.0959742198255</v>
+        <v>63.4796326575495</v>
       </c>
       <c r="D5" t="n">
-        <v>872.0959742198255</v>
+        <v>63.4796326575495</v>
       </c>
       <c r="E5" t="n">
-        <v>469.51244933637</v>
+        <v>63.4796326575495</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634777</v>
+        <v>50.62559822793132</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475499</v>
+        <v>400.4856027838004</v>
       </c>
       <c r="L5" t="n">
-        <v>320.4858080663444</v>
+        <v>893.8058945023292</v>
       </c>
       <c r="M5" t="n">
-        <v>858.7445930764374</v>
+        <v>1121.520058314909</v>
       </c>
       <c r="N5" t="n">
-        <v>1386.555876713899</v>
+        <v>1635.122736924599</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.595477606228</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.78296973775</v>
+        <v>2037.169424102449</v>
       </c>
       <c r="S5" t="n">
-        <v>2062.256930507691</v>
+        <v>2037.169424102449</v>
       </c>
       <c r="T5" t="n">
-        <v>2062.256930507691</v>
+        <v>1813.668821661866</v>
       </c>
       <c r="U5" t="n">
-        <v>2062.256930507691</v>
+        <v>1557.916092096465</v>
       </c>
       <c r="V5" t="n">
-        <v>2062.256930507691</v>
+        <v>1215.809282799983</v>
       </c>
       <c r="W5" t="n">
-        <v>2062.256930507691</v>
+        <v>846.1077392215622</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.256930507691</v>
+        <v>456.655134154619</v>
       </c>
       <c r="Y5" t="n">
-        <v>1665.766221428292</v>
+        <v>456.655134154619</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>632.5119955688349</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>481.8577651289271</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>351.7687977504074</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>215.3223068612951</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>90.89050074442696</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>90.89050074442696</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>90.89050074442696</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382924</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>813.5918890426578</v>
       </c>
       <c r="M6" t="n">
-        <v>959.915873575022</v>
+        <v>813.5918890426578</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875481</v>
+        <v>1327.194567652347</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466462</v>
+        <v>1840.797246262037</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262037</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.78296973775</v>
+        <v>2051.245294714992</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.78296973775</v>
+        <v>1916.314617614861</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813769</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492411</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863478</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996765</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>963.6225469342889</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>784.3083300097962</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>367.2282643338154</v>
+        <v>288.9468216099632</v>
       </c>
       <c r="C7" t="n">
-        <v>367.2282643338154</v>
+        <v>118.7417036759524</v>
       </c>
       <c r="D7" t="n">
-        <v>367.2282643338154</v>
+        <v>118.7417036759524</v>
       </c>
       <c r="E7" t="n">
-        <v>367.2282643338154</v>
+        <v>118.7417036759524</v>
       </c>
       <c r="F7" t="n">
-        <v>367.2282643338154</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>474.1548403012645</v>
       </c>
       <c r="W7" t="n">
-        <v>824.4206477341891</v>
+        <v>474.1548403012645</v>
       </c>
       <c r="X7" t="n">
-        <v>590.3403255171721</v>
+        <v>474.1548403012645</v>
       </c>
       <c r="Y7" t="n">
-        <v>367.2282643338154</v>
+        <v>474.1548403012645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1969.157795997781</v>
+        <v>1741.6531569252</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.982294500712</v>
+        <v>1348.47765542813</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.54116571738</v>
+        <v>963.0365266447982</v>
       </c>
       <c r="E8" t="n">
-        <v>787.9576408339242</v>
+        <v>963.0365266447982</v>
       </c>
       <c r="F8" t="n">
-        <v>371.063202363902</v>
+        <v>546.1420881747759</v>
       </c>
       <c r="G8" t="n">
-        <v>361.9408508923092</v>
+        <v>132.9793326627791</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>132.9793326627791</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="Y8" t="n">
-        <v>1969.157795997781</v>
+        <v>2142.147902636597</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>850.6182020620834</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1614.763130931309</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>839.5634350659138</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>683.9303219684286</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>528.3715098276311</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>371.0455750406041</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>311.7715624924585</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>311.7715624924585</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1653.037022769199</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="C11" t="n">
-        <v>1331.657796418324</v>
+        <v>813.636568773584</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418324</v>
+        <v>800.8136995685215</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="F11" t="n">
-        <v>655.772383357234</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2923.289017073876</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2923.289017073876</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2624.086257188357</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2306.429927267607</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>1981.735493334402</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="12">
@@ -5121,13 +5121,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M12" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>487.4958349961666</v>
+        <v>103.3140520158402</v>
       </c>
       <c r="C13" t="n">
-        <v>389.0869922083497</v>
+        <v>103.3140520158402</v>
       </c>
       <c r="D13" t="n">
-        <v>389.0869922083497</v>
+        <v>103.3140520158402</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083497</v>
+        <v>103.3140520158402</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>103.3140520158402</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,7 +5200,7 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027736</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245441</v>
+        <v>936.0428256245443</v>
       </c>
       <c r="V13" t="n">
-        <v>801.0956681041524</v>
+        <v>741.8597555915622</v>
       </c>
       <c r="W13" t="n">
-        <v>801.0956681041524</v>
+        <v>530.3256286689337</v>
       </c>
       <c r="X13" t="n">
-        <v>638.8116210333294</v>
+        <v>368.0415815981107</v>
       </c>
       <c r="Y13" t="n">
-        <v>487.4958349961666</v>
+        <v>216.7257955609479</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1135.015795124461</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="C14" t="n">
-        <v>813.6365687735849</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="D14" t="n">
-        <v>499.9917151364465</v>
+        <v>821.3709414873216</v>
       </c>
       <c r="E14" t="n">
-        <v>499.9917151364465</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="F14" t="n">
-        <v>499.9917151364465</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5282,7 +5282,7 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
@@ -5312,16 +5312,16 @@
         <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429137</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543618</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
         <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>1463.714265689664</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.973980501895</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2148.973980501895</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>368.0415815981106</v>
+        <v>103.3140520158406</v>
       </c>
       <c r="C16" t="n">
-        <v>368.0415815981106</v>
+        <v>103.3140520158406</v>
       </c>
       <c r="D16" t="n">
-        <v>368.0415815981106</v>
+        <v>103.3140520158406</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5573325675165</v>
+        <v>103.3140520158406</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>103.3140520158406</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>103.3140520158406</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>103.3140520158406</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5443,10 +5443,10 @@
         <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
         <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245441</v>
+        <v>936.0428256245442</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915621</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689336</v>
+        <v>530.3256286689339</v>
       </c>
       <c r="X16" t="n">
-        <v>368.0415815981106</v>
+        <v>368.0415815981107</v>
       </c>
       <c r="Y16" t="n">
-        <v>368.0415815981106</v>
+        <v>216.725795560948</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5598,10 +5598,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.6987703122989</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222408</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>499.9530296343059</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>683.1426636655151</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>845.8474307072231</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838017</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5729,40 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099307</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924189</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129439</v>
       </c>
       <c r="K20" t="n">
         <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5832,19 +5832,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229882</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222407</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960405</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343045</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N25" t="n">
-        <v>776.8456480823215</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>967.282790386233</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,22 +6224,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958355</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6306,16 +6306,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>1532.448062118649</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985349</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878065</v>
@@ -6385,10 +6385,10 @@
         <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904116</v>
@@ -6424,10 +6424,10 @@
         <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6461,16 +6461,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388013</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662631</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614365</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388519</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
         <v>2453.253063755555</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1184.702594472545</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1840.480565683104</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2357.000848274085</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918592</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303048</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.02046740124</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.3560533993098</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057095</v>
+        <v>601.3807258108124</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803404</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835552</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076166</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>255.2650543744631</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>614.247410401925</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741591</v>
+        <v>1107.567702120454</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786171</v>
+        <v>1653.568602165034</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.722335423633</v>
+        <v>2293.032006377479</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315962</v>
+        <v>2733.071607269807</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174554</v>
+        <v>3192.911219976312</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042573</v>
+        <v>3377.75678011726</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038083</v>
+        <v>3377.75678011726</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.162335939835</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380777</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.7472256969</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281944</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131756</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946338</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748464</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898327</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076166</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>551.1212215006584</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1178.89287112734</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965135</v>
+        <v>365.6713676929744</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918672</v>
+        <v>309.3853606404884</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237464</v>
+        <v>267.671358424528</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123134</v>
+        <v>226.0316571652554</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546508</v>
+        <v>182.6248332597532</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834608</v>
+        <v>128.2898902407236</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431928</v>
+        <v>86.73045008374245</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076166</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067537</v>
+        <v>149.3901767122871</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805535</v>
+        <v>425.1699371610694</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188175</v>
+        <v>723.1136360743159</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770968</v>
+        <v>1017.955390680508</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145875</v>
+        <v>1180.660157722216</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649524</v>
+        <v>1376.562239503612</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746645</v>
+        <v>1379.984435873663</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308586</v>
+        <v>1370.002557387764</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.2176684205</v>
+        <v>1281.105584451838</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518099</v>
+        <v>1159.305643501597</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250232</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395528</v>
+        <v>835.7257283273723</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000948</v>
+        <v>666.3144371400747</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124425</v>
+        <v>546.1532258045827</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584503</v>
+        <v>436.9602755027508</v>
       </c>
     </row>
     <row r="35">
@@ -7017,22 +7017,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2347.971185375794</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7105,16 +7105,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7163,10 +7163,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7254,16 +7254,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,19 +7339,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599515</v>
@@ -7442,7 +7442,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7451,7 +7451,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7491,22 +7491,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>346.9752758473783</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>830.5413617456916</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>1458.313011372373</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7567,28 +7567,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128483</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M43" t="n">
-        <v>593.6560140511123</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N43" t="n">
-        <v>776.8456480823215</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O43" t="n">
-        <v>967.2827903862335</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7725,19 +7725,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7804,28 +7804,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>237.8657312597344</v>
       </c>
       <c r="L2" t="n">
-        <v>433.0361986916931</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519591</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>93.79016463310283</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>210.3493810477019</v>
+        <v>611.1777065035437</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886041</v>
+        <v>604.1626973083985</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,22 +8216,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>433.0361986916931</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321646</v>
+        <v>379.7393584791214</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.909075792016</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8298,19 +8298,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>432.721472113853</v>
       </c>
       <c r="M6" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>144.3219646728116</v>
+        <v>604.1626973083985</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431208</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8459,19 +8459,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>320.115627001847</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8538,16 +8538,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>447.5171231095482</v>
+        <v>151.5659933015362</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8769,16 +8769,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N12" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>324.8070240426374</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9179,7 +9179,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9246,13 +9246,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9480,22 +9480,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9714,22 +9714,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>374.1267046741214</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,19 +9954,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>636.8366347720141</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>314.1682372053019</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>136.3731801151489</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10665,25 +10665,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>123.7997463922351</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10902,19 +10902,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>522.8795138138872</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11139,16 +11139,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>377.3304183063261</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,22 +11373,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>165.8788395891213</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>297.8137645877551</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>95.04630253806145</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>54.71022589820954</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>58.64355338746444</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>229.4122380348302</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>220.0982948823074</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>19.08550508436893</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>19.90219364595319</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1060502.519826918</v>
+        <v>1059600.198406277</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1060502.519826918</v>
+        <v>1059600.198406277</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>947059.3124955533</v>
+        <v>947059.3124955532</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>947059.3124955534</v>
+        <v>947059.3124955532</v>
       </c>
     </row>
     <row r="7">
@@ -26317,13 +26317,13 @@
         <v>234431.8315213638</v>
       </c>
       <c r="D2" t="n">
-        <v>234431.8315213637</v>
+        <v>234431.8315213638</v>
       </c>
       <c r="E2" t="n">
-        <v>207166.7304517205</v>
+        <v>207166.7304517206</v>
       </c>
       <c r="F2" t="n">
-        <v>207166.7304517204</v>
+        <v>207166.7304517206</v>
       </c>
       <c r="G2" t="n">
         <v>234431.8315213638</v>
@@ -26335,13 +26335,13 @@
         <v>234431.8315213638</v>
       </c>
       <c r="J2" t="n">
-        <v>234431.8315213644</v>
+        <v>234431.8315213643</v>
       </c>
       <c r="K2" t="n">
         <v>234431.831521364</v>
       </c>
       <c r="L2" t="n">
-        <v>234431.8315213636</v>
+        <v>234431.8315213641</v>
       </c>
       <c r="M2" t="n">
         <v>234431.8315213638</v>
@@ -26350,7 +26350,7 @@
         <v>234431.8315213638</v>
       </c>
       <c r="O2" t="n">
-        <v>234431.8315213639</v>
+        <v>234431.8315213638</v>
       </c>
       <c r="P2" t="n">
         <v>234431.8315213638</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340555</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062183</v>
+        <v>22558.42953401308</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668193</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.85189012250345e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399297</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728548</v>
+        <v>62456.24177539645</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081111</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.69404277123</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190948</v>
+        <v>205625.0607746772</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190948</v>
+        <v>205625.0607746773</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26433,7 +26433,7 @@
         <v>160556.29099179</v>
       </c>
       <c r="H4" t="n">
-        <v>160556.29099179</v>
+        <v>160556.2909917899</v>
       </c>
       <c r="I4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556898</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.0675348173</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.0675348173</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,22 +26482,22 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173851</v>
+        <v>60823.19813315428</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-214272.6258296007</v>
+        <v>-210221.9538221863</v>
       </c>
       <c r="C6" t="n">
-        <v>-32067.67753774472</v>
+        <v>-36363.29678813077</v>
       </c>
       <c r="D6" t="n">
-        <v>-38659.73887746717</v>
+        <v>-46396.02810085836</v>
       </c>
       <c r="E6" t="n">
-        <v>-70939.22522237232</v>
+        <v>-71148.95676906177</v>
       </c>
       <c r="F6" t="n">
-        <v>41183.33625167212</v>
+        <v>40973.60470498274</v>
       </c>
       <c r="G6" t="n">
-        <v>-31719.5543226279</v>
+        <v>-31719.55432262769</v>
       </c>
       <c r="H6" t="n">
-        <v>15705.77121405414</v>
+        <v>15705.77121405405</v>
       </c>
       <c r="I6" t="n">
-        <v>15705.77121405411</v>
+        <v>15705.77121405432</v>
       </c>
       <c r="J6" t="n">
-        <v>-197336.1463832309</v>
+        <v>-190819.861228658</v>
       </c>
       <c r="K6" t="n">
-        <v>9466.002811271399</v>
+        <v>9466.00281127137</v>
       </c>
       <c r="L6" t="n">
-        <v>-45716.58612335019</v>
+        <v>-49765.42333382167</v>
       </c>
       <c r="M6" t="n">
-        <v>-26495.05824556883</v>
+        <v>-27546.75325675699</v>
       </c>
       <c r="N6" t="n">
         <v>15705.77121405414</v>
       </c>
       <c r="O6" t="n">
-        <v>-12061.92282871692</v>
+        <v>-12061.9228287171</v>
       </c>
       <c r="P6" t="n">
-        <v>15705.77121405414</v>
+        <v>15705.77121405411</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26753,7 +26753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095207</v>
+        <v>844.4391950293151</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660685</v>
+        <v>78.07030221924556</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551355</v>
+        <v>17.58004954287478</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506321</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.362224997166</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407243</v>
+        <v>117.126871304278</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506321</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27433,19 +27433,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>139.5510663315429</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>147.748517176995</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>75.55601749163732</v>
       </c>
       <c r="G3" t="n">
-        <v>48.86991870270228</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.80338551319817</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27546,7 +27546,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>92.31781312331465</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27597,7 +27597,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>53.44764067060171</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>1.284516538758737</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27707,10 +27707,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626865</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>75.55601749163738</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27783,13 +27783,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>79.28660308873906</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27822,7 +27822,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27831,16 +27831,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>161.180284188037</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>9.360617946316324</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>52.1440468028367</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>60.39847475326023</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>189.5127696447259</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,40 +28719,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668774</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.636002634530001</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,43 +28956,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668765</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.636002634529923</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155848</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J25" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,43 +29226,43 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>28.01250026485198</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>5.636002634529923</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901209</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901311</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431634</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,19 +29533,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901306</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901306</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>43.49509683160588</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>86.27291196566682</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>18.71446861254294</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>76.79385455032059</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
     </row>
     <row r="35">
@@ -30177,19 +30177,19 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30289,7 +30289,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="39">
@@ -30411,22 +30411,22 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>5.636002634528921</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
       <c r="R40" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,31 +30639,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>28.01250026485243</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,7 +30876,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30888,19 +30888,19 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -32473,25 +32473,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.236771369671924e-13</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.534324246883461e-13</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.707231357290215e-13</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.734856145506603e-13</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.638175463473446e-13</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.398144857545746e-13</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.049948560845564e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>94.80732808049709</v>
       </c>
       <c r="L2" t="n">
-        <v>279.7880289612014</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>4.193229299769479</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>117.96225899839</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>279.7880289612014</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344374</v>
+        <v>230.0143068813941</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>342.6611252569348</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>58.94985181864499</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35179,19 +35179,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>170.3905754041197</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35258,16 +35258,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>362.1450102553815</v>
+        <v>66.19388044736954</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35489,16 +35489,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N12" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.8188708867233</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35966,13 +35966,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634528664</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087322</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510917</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449114</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457865</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110592</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528578</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644682406</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>284.5297693407881</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,22 +36522,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>192.3607498019308</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644682406</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907917</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>474.7566830047994</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>544.4495127227023</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>221.480678316413</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611263</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446882</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.383119385102</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039242</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>189.6059785576949</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>584.5762369338778</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176207</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066585</v>
+        <v>464.4844572792973</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273755</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>51.00106726098225</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791177</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3761262993529</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947296</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255016</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>297.8199541476684</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>197.8808906882788</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>32.81159323632111</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,19 +37473,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905431</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>430.1919549249983</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37707,22 +37707,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716078</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37950,16 +37950,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>192.3607498019313</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>75.8184927322031</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38184,19 +38184,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>249.385018246236</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
